--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318272.8072940396</v>
+        <v>331999.1654314577</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.8947622972</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
         <v>471083.8947622971</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1182.415043048968</v>
+        <v>1182.415043049004</v>
       </c>
       <c r="C6" t="n">
-        <v>1182.415043048968</v>
+        <v>1182.415043048888</v>
       </c>
       <c r="D6" t="n">
-        <v>1182.415043048968</v>
+        <v>1182.415043048946</v>
       </c>
       <c r="E6" t="n">
-        <v>-59396.005735725</v>
+        <v>-59396.00573572503</v>
       </c>
       <c r="F6" t="n">
         <v>73703.99426427501</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>331999.1654314577</v>
+        <v>248213.7636698328</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>471083.8947622972</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="D2" t="n">
         <v>471083.8947622971</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1182.415043049004</v>
+        <v>1138.27926436788</v>
       </c>
       <c r="C6" t="n">
-        <v>1182.415043048888</v>
+        <v>1138.279264367822</v>
       </c>
       <c r="D6" t="n">
-        <v>1182.415043048946</v>
+        <v>1138.279264367822</v>
       </c>
       <c r="E6" t="n">
-        <v>-59396.00573572503</v>
+        <v>-74206.02257483896</v>
       </c>
       <c r="F6" t="n">
-        <v>73703.99426427501</v>
+        <v>58893.97742516111</v>
       </c>
       <c r="G6" t="n">
-        <v>73703.99426427501</v>
+        <v>58893.97742516111</v>
       </c>
       <c r="H6" t="n">
-        <v>73703.99426427501</v>
+        <v>58893.97742516111</v>
       </c>
       <c r="I6" t="n">
-        <v>73703.99426427501</v>
+        <v>58893.97742516111</v>
       </c>
       <c r="J6" t="n">
-        <v>73703.99426427501</v>
+        <v>58893.97742516111</v>
       </c>
       <c r="K6" t="n">
-        <v>73703.99426427501</v>
+        <v>58893.97742516111</v>
       </c>
       <c r="L6" t="n">
-        <v>73703.99426427501</v>
+        <v>58893.97742516111</v>
       </c>
       <c r="M6" t="n">
-        <v>73703.99426427501</v>
+        <v>58893.97742516111</v>
       </c>
       <c r="N6" t="n">
-        <v>73703.99426427501</v>
+        <v>58893.97742516111</v>
       </c>
       <c r="O6" t="n">
-        <v>73703.99426427501</v>
+        <v>58893.97742516111</v>
       </c>
       <c r="P6" t="n">
-        <v>73703.99426427501</v>
+        <v>58893.97742516111</v>
       </c>
     </row>
   </sheetData>
